--- a/biology/Médecine/Frithiof_Alarik_Holmgren/Frithiof_Alarik_Holmgren.xlsx
+++ b/biology/Médecine/Frithiof_Alarik_Holmgren/Frithiof_Alarik_Holmgren.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Frithiof Alarik Holmgren, né le 22 octobre 1831 à Västra Ny socken (sv) (Östergötland) et mort le 14 août 1897 à Uppsala, est un médecin et physiologiste suédois.
 </t>
@@ -511,12 +523,14 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il exerce comme médecin à partir de 1857 notamment durant la pandémie de choléra à Norrköping et Söderköping. Diplômé officiellement en 1861, il enseigne de 1864 à 1897 à l'université d'Uppsala et est élu membre de l'Académie royale des sciences en 1880[1],[2].
-Il est connu pour ses nombreuses études sur les variations visuelles de la couleur, l'action de la rétine, le daltonisme et la cécité. Il fut aussi un des grands opposants à la vivisections et plaida pour l'utilisation du curare pour abréger les souffrances[3].
-Il épouse en 1869 la suffragette Ann-Margret Holmgren. Le couple aura 8 enfants. Il est inhumé avec sa femme au Uppsala old cemetery (en)[4],[5].
-Il est mentionné par André Laurie et Jules Verne dans le chapitre XI de leur roman L'Épave du Cynthia[6].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il exerce comme médecin à partir de 1857 notamment durant la pandémie de choléra à Norrköping et Söderköping. Diplômé officiellement en 1861, il enseigne de 1864 à 1897 à l'université d'Uppsala et est élu membre de l'Académie royale des sciences en 1880,.
+Il est connu pour ses nombreuses études sur les variations visuelles de la couleur, l'action de la rétine, le daltonisme et la cécité. Il fut aussi un des grands opposants à la vivisections et plaida pour l'utilisation du curare pour abréger les souffrances.
+Il épouse en 1869 la suffragette Ann-Margret Holmgren. Le couple aura 8 enfants. Il est inhumé avec sa femme au Uppsala old cemetery (en),.
+Il est mentionné par André Laurie et Jules Verne dans le chapitre XI de leur roman L'Épave du Cynthia.
 </t>
         </is>
       </c>
@@ -545,7 +559,9 @@
           <t>Publication</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>1877 : De la cécité des couleurs dans ses rapports avec les chemins de fer et la marine</t>
         </is>
